--- a/data/trans_orig/P79_n_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R2-Provincia-trans_orig.xlsx
@@ -744,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4814</v>
+        <v>4662</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002523371287959411</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01509722928212116</v>
+        <v>0.01462034479535609</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21374</v>
+        <v>16139</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01086603109481473</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06762633774866728</v>
+        <v>0.05106279861858452</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -783,19 +783,19 @@
         <v>4239</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>687</v>
+        <v>509</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16211</v>
+        <v>17639</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006676406127793093</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001081419333704699</v>
+        <v>0.0008015761699674938</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02553351223623689</v>
+        <v>0.02778261236932915</v>
       </c>
     </row>
     <row r="5">
@@ -812,16 +812,16 @@
         <v>318040</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>314031</v>
+        <v>314183</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>318845</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9974766287120406</v>
+        <v>0.9974766287120408</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9849027707178788</v>
+        <v>0.9853796552046435</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,16 +833,16 @@
         <v>312627</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>294687</v>
+        <v>299922</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>316061</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9891339689051851</v>
+        <v>0.9891339689051853</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.932373662251334</v>
+        <v>0.9489372013814157</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,19 +854,19 @@
         <v>630667</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>618695</v>
+        <v>617267</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>634219</v>
+        <v>634397</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9933235938722069</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.974466487763763</v>
+        <v>0.9722173876306703</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9989185806662955</v>
+        <v>0.9991984238300325</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>19697</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10921</v>
+        <v>10114</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35306</v>
+        <v>35896</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03711891712816433</v>
+        <v>0.03711891712816432</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02057993132357954</v>
+        <v>0.01905891665750102</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06653414617489779</v>
+        <v>0.06764494423784992</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -979,19 +979,19 @@
         <v>17354</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10898</v>
+        <v>11037</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26308</v>
+        <v>26417</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03175485887158601</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01994110556374055</v>
+        <v>0.02019590734354114</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04813930392961246</v>
+        <v>0.04833866052848285</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -1000,19 +1000,19 @@
         <v>37051</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25094</v>
+        <v>25136</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>56003</v>
+        <v>55946</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03439742890049648</v>
+        <v>0.03439742890049649</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02329722850736692</v>
+        <v>0.02333542184147258</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05199243102078156</v>
+        <v>0.05193907965153294</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>510950</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>495341</v>
+        <v>494751</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>519726</v>
+        <v>520533</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9628810828718357</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9334658538251023</v>
+        <v>0.9323550557621501</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9794200686764205</v>
+        <v>0.980941083342499</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>695</v>
@@ -1050,19 +1050,19 @@
         <v>529140</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>520186</v>
+        <v>520077</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>535596</v>
+        <v>535457</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.968245141128414</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9518606960703876</v>
+        <v>0.9516613394715167</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9800588944362595</v>
+        <v>0.9798040926564587</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1064</v>
@@ -1071,19 +1071,19 @@
         <v>1040090</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1021138</v>
+        <v>1021195</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1052047</v>
+        <v>1052005</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9656025710995036</v>
+        <v>0.9656025710995035</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9480075689792186</v>
+        <v>0.9480609203484672</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.976702771492633</v>
+        <v>0.9766645781585275</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>7382</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2762</v>
+        <v>3337</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13965</v>
+        <v>16251</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02336156770133638</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008741180980685301</v>
+        <v>0.01056094592562466</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04419554905637512</v>
+        <v>0.05142928485119554</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1196,19 +1196,19 @@
         <v>8752</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4685</v>
+        <v>4371</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16668</v>
+        <v>15220</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02455911210112504</v>
+        <v>0.02455911210112503</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01314471241496878</v>
+        <v>0.01226357663558244</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04676895590157026</v>
+        <v>0.04270615303050964</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1217,19 +1217,19 @@
         <v>16135</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9559</v>
+        <v>9564</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26006</v>
+        <v>25139</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02399630668641728</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01421609841472821</v>
+        <v>0.01422417250409474</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03867747438915942</v>
+        <v>0.03738781743315379</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>308611</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>302028</v>
+        <v>299742</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>313231</v>
+        <v>312656</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9766384322986637</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9558044509436254</v>
+        <v>0.9485707151488043</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9912588190193148</v>
+        <v>0.9894390540743753</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>525</v>
@@ -1267,19 +1267,19 @@
         <v>347629</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>339713</v>
+        <v>341161</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>351696</v>
+        <v>352010</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9754408878988751</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9532310440984302</v>
+        <v>0.9572938469694909</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9868552875850314</v>
+        <v>0.9877364233644176</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>878</v>
@@ -1288,19 +1288,19 @@
         <v>656240</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>646369</v>
+        <v>647236</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>662816</v>
+        <v>662811</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9760036933135828</v>
+        <v>0.9760036933135827</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9613225256108406</v>
+        <v>0.9626121825668462</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9857839015852718</v>
+        <v>0.9857758274959052</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>5518</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2080</v>
+        <v>1641</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12707</v>
+        <v>13125</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01478904466542946</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005573532806065056</v>
+        <v>0.004397065193897727</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03405313156737474</v>
+        <v>0.03517412006532381</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1413,19 +1413,19 @@
         <v>13163</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6888</v>
+        <v>7636</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26351</v>
+        <v>27740</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03119377697163416</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01632395191728545</v>
+        <v>0.01809527943803068</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06244892488036353</v>
+        <v>0.0657396001446352</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1434,19 +1434,19 @@
         <v>18681</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11435</v>
+        <v>11404</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>35935</v>
+        <v>33489</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02349500137543746</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01438186376565134</v>
+        <v>0.0143423038720102</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04519505435138327</v>
+        <v>0.04211874233327222</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>367627</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>360438</v>
+        <v>360020</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>371065</v>
+        <v>371504</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9852109553345706</v>
+        <v>0.9852109553345707</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9659468684326259</v>
+        <v>0.9648258799346769</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9944264671939351</v>
+        <v>0.9956029348061024</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>586</v>
@@ -1484,19 +1484,19 @@
         <v>408798</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>395610</v>
+        <v>394221</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>415073</v>
+        <v>414325</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9688062230283658</v>
+        <v>0.9688062230283661</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9375510751196365</v>
+        <v>0.9342603998553648</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9836760480827146</v>
+        <v>0.9819047205619692</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>873</v>
@@ -1505,19 +1505,19 @@
         <v>776426</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>759172</v>
+        <v>761618</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>783672</v>
+        <v>783703</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9765049986245625</v>
+        <v>0.9765049986245624</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9548049456486167</v>
+        <v>0.9578812576667278</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9856181362343487</v>
+        <v>0.9856576961279897</v>
       </c>
     </row>
     <row r="15">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4018</v>
+        <v>3994</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005515259806558506</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01953848140252119</v>
+        <v>0.0194208813782976</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3005</v>
+        <v>3130</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003714028699347807</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01312808007614612</v>
+        <v>0.01367281647504051</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -1651,19 +1651,19 @@
         <v>1984</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4621</v>
+        <v>4650</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004566455689281328</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001220116915604307</v>
+        <v>0.001240013883441215</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01063205952183554</v>
+        <v>0.01069952322902374</v>
       </c>
     </row>
     <row r="17">
@@ -1680,7 +1680,7 @@
         <v>204531</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>201647</v>
+        <v>201671</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>205665</v>
@@ -1689,7 +1689,7 @@
         <v>0.9944847401934415</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9804615185974789</v>
+        <v>0.9805791186217024</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
         <v>228068</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>225913</v>
+        <v>225788</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>228918</v>
@@ -1710,7 +1710,7 @@
         <v>0.9962859713006523</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.986871919923854</v>
+        <v>0.9863271835249594</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1722,19 +1722,19 @@
         <v>432598</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>429961</v>
+        <v>429932</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>434052</v>
+        <v>434043</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9954335443107185</v>
+        <v>0.9954335443107187</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9893679404781645</v>
+        <v>0.9893004767709764</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9987798830843955</v>
+        <v>0.9987599861165588</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>6558</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2686</v>
+        <v>2659</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13154</v>
+        <v>15162</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02422726970529714</v>
+        <v>0.02422726970529715</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009921224418711017</v>
+        <v>0.009821095105984791</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04859031550709617</v>
+        <v>0.05600713228216352</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>11</v>
@@ -1847,19 +1847,19 @@
         <v>7725</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>3711</v>
+        <v>4240</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14242</v>
+        <v>14828</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.02928930565801138</v>
+        <v>0.02928930565801136</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01407056711044661</v>
+        <v>0.01607583750397235</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05399650650781723</v>
+        <v>0.05621861077361824</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -1868,19 +1868,19 @@
         <v>14284</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8097</v>
+        <v>8712</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23085</v>
+        <v>22320</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.0267253430447214</v>
+        <v>0.02672534304472139</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01514995165621301</v>
+        <v>0.01630149089549889</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04319266250366292</v>
+        <v>0.04176239034106782</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>264149</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257553</v>
+        <v>255545</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>268021</v>
+        <v>268048</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9757727302947029</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9514096844929039</v>
+        <v>0.9439928677178363</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9900787755812888</v>
+        <v>0.9901789048940153</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>449</v>
@@ -1918,19 +1918,19 @@
         <v>256025</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>249508</v>
+        <v>248922</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>260039</v>
+        <v>259510</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9707106943419889</v>
+        <v>0.9707106943419884</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9460034934921825</v>
+        <v>0.943781389226382</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9859294328895533</v>
+        <v>0.9839241624960278</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>813</v>
@@ -1939,19 +1939,19 @@
         <v>520173</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>511372</v>
+        <v>512137</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>526360</v>
+        <v>525745</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9732746569552785</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9568073374963367</v>
+        <v>0.9582376096589322</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9848500483437869</v>
+        <v>0.9836985091045013</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>8394</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4150</v>
+        <v>3345</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16444</v>
+        <v>14943</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01166361555399069</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005766720723946486</v>
+        <v>0.004647615100299558</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02284830574625857</v>
+        <v>0.02076343226207911</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2064,19 +2064,19 @@
         <v>14237</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>8776</v>
+        <v>8790</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22151</v>
+        <v>21995</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01844062064115651</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01136766917875785</v>
+        <v>0.01138574097095748</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0286915093975441</v>
+        <v>0.02848876627433257</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -2085,19 +2085,19 @@
         <v>22631</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15242</v>
+        <v>14785</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>32941</v>
+        <v>32244</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01517107615282839</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01021749731271713</v>
+        <v>0.009911362248942849</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02208251470009363</v>
+        <v>0.02161511288438564</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>711293</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>703243</v>
+        <v>704744</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>715537</v>
+        <v>716342</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9883363844460095</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9771516942537415</v>
+        <v>0.9792365677379209</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9942332792760534</v>
+        <v>0.9953523848997007</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>941</v>
@@ -2135,19 +2135,19 @@
         <v>757820</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>749906</v>
+        <v>750062</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>763281</v>
+        <v>763267</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9815593793588434</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9713084906024561</v>
+        <v>0.9715112337256674</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9886323308212422</v>
+        <v>0.9886142590290423</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1532</v>
@@ -2156,19 +2156,19 @@
         <v>1469113</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1458803</v>
+        <v>1459500</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1476502</v>
+        <v>1476959</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9848289238471716</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.977917485299907</v>
+        <v>0.9783848871156146</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9897825026872832</v>
+        <v>0.9900886377510572</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>97194</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>78496</v>
+        <v>79253</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>118942</v>
+        <v>118521</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.121785824907865</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.098357289336488</v>
+        <v>0.09930557825425101</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.149036861083763</v>
+        <v>0.1485091899741075</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>110</v>
@@ -2281,19 +2281,19 @@
         <v>85678</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>70607</v>
+        <v>70720</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>103049</v>
+        <v>103416</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1030614072337561</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08493196326147184</v>
+        <v>0.08506855628319757</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1239566336792943</v>
+        <v>0.1243981178011299</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>204</v>
@@ -2302,19 +2302,19 @@
         <v>182872</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>159197</v>
+        <v>159210</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>208760</v>
+        <v>208670</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1122325136730821</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09770246197178706</v>
+        <v>0.0977105109873397</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1281202979775263</v>
+        <v>0.1280651705068376</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>700878</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>679130</v>
+        <v>679551</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>719576</v>
+        <v>718819</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8782141750921348</v>
+        <v>0.8782141750921351</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8509631389162374</v>
+        <v>0.8514908100258923</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9016427106635122</v>
+        <v>0.9006944217457491</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>952</v>
@@ -2352,19 +2352,19 @@
         <v>745653</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>728282</v>
+        <v>727915</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>760724</v>
+        <v>760611</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8969385927662439</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8760433663207056</v>
+        <v>0.8756018821988701</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.915068036738528</v>
+        <v>0.9149314437168027</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1620</v>
@@ -2373,19 +2373,19 @@
         <v>1446531</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1420643</v>
+        <v>1420733</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1470206</v>
+        <v>1470193</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8877674863269178</v>
+        <v>0.8877674863269179</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8718797020224738</v>
+        <v>0.8719348294931625</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.902297538028213</v>
+        <v>0.9022894890126602</v>
       </c>
     </row>
     <row r="27">
@@ -2477,19 +2477,19 @@
         <v>146683</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>122395</v>
+        <v>122679</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>173301</v>
+        <v>172917</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.04152075883530864</v>
+        <v>0.04152075883530863</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03464574535480461</v>
+        <v>0.03472594801607191</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04905539762495405</v>
+        <v>0.0489466009003074</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>190</v>
@@ -2498,19 +2498,19 @@
         <v>151194</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>131020</v>
+        <v>128688</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>177028</v>
+        <v>174693</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.04045910578292512</v>
+        <v>0.04045910578292511</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03506075438050197</v>
+        <v>0.03443670564577304</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.04737220145009059</v>
+        <v>0.04674736615273024</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>327</v>
@@ -2519,19 +2519,19 @@
         <v>297877</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>265526</v>
+        <v>265580</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>335998</v>
+        <v>335308</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.04097502241913239</v>
+        <v>0.04097502241913237</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03652493271258254</v>
+        <v>0.03653239970017463</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04621879951915979</v>
+        <v>0.0461239848764024</v>
       </c>
     </row>
     <row r="29">
@@ -2548,19 +2548,19 @@
         <v>3386079</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3359461</v>
+        <v>3359845</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3410367</v>
+        <v>3410083</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9584792411646914</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9509446023750464</v>
+        <v>0.9510533990996927</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9653542546451955</v>
+        <v>0.9652740519839287</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5177</v>
@@ -2569,19 +2569,19 @@
         <v>3585760</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3559926</v>
+        <v>3562261</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3605934</v>
+        <v>3608266</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.959540894217075</v>
+        <v>0.9595408942170749</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9526277985499096</v>
+        <v>0.9532526338472701</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9649392456194982</v>
+        <v>0.9655632943542272</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8416</v>
@@ -2590,19 +2590,19 @@
         <v>6971839</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6933718</v>
+        <v>6934408</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7004190</v>
+        <v>7004136</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.9590249775808676</v>
+        <v>0.9590249775808677</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9537812004808403</v>
+        <v>0.9538760151235977</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9634750672874175</v>
+        <v>0.9634676002998255</v>
       </c>
     </row>
     <row r="30">
